--- a/biology/Botanique/Cannabis_en_Arabie_saoudite/Cannabis_en_Arabie_saoudite.xlsx
+++ b/biology/Botanique/Cannabis_en_Arabie_saoudite/Cannabis_en_Arabie_saoudite.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'usage et la possession de cannabis en Arabie saoudite pour usage personnel de n'importe quel type de drogue récréative est passible d'emprisonnement.
 La peine infligée pour usage personnel peut s'élever jusqu'à six mois de prison ferme.
 La vente et la contrebande de grandes quantités est généralement punie et peut aller jusqu'à l'exécution, bien que les cas récents d'exécution soient rares.
-Les étrangers qui consomment de la drogue peuvent quant à eux être déportés[1].
+Les étrangers qui consomment de la drogue peuvent quant à eux être déportés.
 </t>
         </is>
       </c>
